--- a/database/httpswwwmojbarplartykuly.xlsx
+++ b/database/httpswwwmojbarplartykuly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1977,6 +1977,18 @@
         </is>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/piwne-koktajle-zimowe/</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Piwne koktajle zimowe</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpswwwmojbarplartykuly.xlsx
+++ b/database/httpswwwmojbarplartykuly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,6 +1989,1506 @@
         </is>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="#"</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://msbis.com/"</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Kursy</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://msbis.com/szkolenia-i-kursy/kurs-barista?utm_source=mojbar&amp;amp;utm_medium=menu&amp;amp;utm_campaign=kursy"</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Kurs Barista</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://msbis.com/szkolenia-i-kursy/kurs-barmanski?utm_source=mojbar&amp;amp;utm_medium=menu&amp;amp;utm_campaign=kursy"</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Kurs Barmański</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://msbis.com/szkolenia-i-kursy/kurs-kelnerski?utm_source=mojbar&amp;amp;utm_medium=menu&amp;amp;utm_campaign=kursy"</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Kurs Kelnerski</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://msbis.com/szkolenia-i-kursy/kurs-sommelierski?utm_source=mojbar&amp;amp;utm_medium=menu&amp;amp;utm_campaign=kursy"</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Kurs Sommelierski</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://msbis.com/szkolenia-i-kursy/szkolenie-barmanskie?utm_source=mojbar&amp;amp;utm_medium=menu&amp;amp;utm_campaign=kursy"</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Szkolenie Barmańskie</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.facebook.com/mojbarpl"</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.facebook.com/mojbarpl/"</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.instagram.com/mojbar.pl"</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.instagram.com/mojbar.pl/"</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/"</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/10-najlepszych-drinkow-na-sylwestra/"</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>10 najlepszych drinków na Sylwestra</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/15-maja-narodowy-dzien-pisco/"</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Pisco z Chile i jej chroniona nazwa pochodzenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/agent-james-bond-007-litra-na-sekunde-czyli-wszystkie-drinki-jakie-pijal-w-filmach-i-powiesciach/"</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Agent James Bond – 007 litra na sekundę, czyli wszystkie drinki jakie pijał w filmach i powieściach.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/alkohol-a-dieta-drinki-niskokaloryczne-cz-i/"</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Alkohol a dieta – Drinki niskokaloryczne cz.I</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/alkohol-a-dieta-o-drinkach-niskokalorycznych-cz-ii/"</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Alkohol a dieta – o drinkach niskokalorycznych cz.II</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/alkohole-bezglutenowe-co-pic-gdy-z-glutenem-nam-nie-po-drodze-jak-wybrac-alkohol-gluten-free-i-jakie-drinki-przygotowac/"</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Alkohole bezglutenowe – Co pić, gdy z glutenem nam nie po drodze? Jak wybrać alkohol gluten free i jakie drinki przygotować?</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/alkohole-w-sluzbie-muzyki/"</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Alkohole w służbie muzyki</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/andrzejki-last-minute-5-najlepszych-drinkow/"</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Andrzejki last minute – 5 najlepszych drinków!</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/artykuly/"</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Artykuły</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/artykuly/page/2/"</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/artykuly/page/3/"</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/barmanstwo-survivalowe-czyli-jak-zrobic-dobry-koktajl-kiedy-nie-ma-nic/"</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Barmaństwo survivalowe. Czyli jak zrobić dobry koktajl, kiedy „nie ma nic”?</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/bourbon-czesc-1/"</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Bourbon – Legendarny trunek Ameryki. Część 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/bourbon-legendarny-trunek-ameryki-czesc-2/"</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Bourbon – Legendarny trunek Ameryki. Część 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/bourbon-legendarny-trunek-ameryki-czesc-3/"</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Bourbon – Legendarny trunek Ameryki. Część 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/campari-bitter/"</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Campari Bitter – historia, z czego jest zrobione, jak smakuje, jak pić w drinkach i czym zastąpić</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/co-kraj-to-obyczaj/"</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Co kraj to obyczaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/cookies/"</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/czym-powitac-sw-mikolaja/"</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Czym powitać Św. Mikołaja</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/czym-rozni-sie-brandy-od-whisky/"</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Czym różni się brandy od whisky?</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/czym-upijamy-sie-najszybciej-czyli-dlaczego-woda-sodowa-uderza-do-glowy/"</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Czym upijamy się najszybciej czyli dlaczego woda sodowa uderza do głowy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/dlaczego-przestalysmy-pic-cosmo/"</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Dlaczego przestałyśmy pić Cosmo?</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/dodaj-drinka/"</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Dodaj Drinka</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drink-na-halloween-czyli-przepis-na-czarny-irish-cream-z-dyni/"</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Drink na Halloween – czyli przepis na czarny Irish Cream z dyni.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-na-okazje/"</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Drinki na okazję</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-tropikalne-i-egzotyczne/"</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Drinki tropikalne i egzotyczne</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-arbuzem/"</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Drinki z arbuzem</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-brandy/"</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Drinki z Brandy</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-cold-brew-czyli-kawa-parzona-na-zimno/"</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Drinki z cold brew, czyli kawą “parzoną” na zimno</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-ginem-7-najlepszych-receptur/"</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Drinki z ginem – 7 najlepszych receptur</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-ginu/"</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Drinki z Ginem</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-herbata-earl-grey-oolong-i-rooibos/"</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Drinki z herbatą earl grey, oolong i rooibos</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-likieru/"</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Drinki z Likierem</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-malibu/"</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Drinki z Malibu</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-mango-kokosem-i-marakuja/"</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Drinki z Mango, Kokosem i Marakują.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-miso-tofu-czy-sosem-sojowym-naprawde/"</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Drinki z miso, tofu, czy sosem sojowym – naprawdę?</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-palemka-czyli-o-tiki-slow-kilka/"</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Drinki z palemką – czyli o TIKI słów kilka</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-pink-gin-royal-bosford-lubuski-gordons-i-beefeater-ktory-lepszy-i-jak-pic/"</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Drinki z Pink Gin – Royal, Bosford, Lubuski, Gordon’s i Beefeater. Który lepszy I jak pić?</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-pisco/"</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Drinki z Pisco</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-rumu/"</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Drinki z Rumem</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-szampanem/"</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Drinki z Szampanem</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-tequili/"</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Drinki z Tequilą</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-wermutu/"</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Drinki z Wermutem</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-whisky/"</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Drinki z Whisky</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/drinki-z-wodka/"</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Drinki z Wódką</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/ekskluzywna-restauracja-zatrudni-barmana-kelnera-agenta-cia/"</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>„Ekskluzywna restauracja zatrudni barmana, kelnera… agenta CIA”</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/gadzet-dmuchapka/"</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Gadżet – Dmuchapka</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/gin-historia-czym-jest-jakie-sa-rodzaje-i-jak-go-pic/"</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Gin – historia, czym jest, jakie są rodzaje i jak go pić?</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/gin-historia-renesans-powrot-czym-rozni-sie-kraftowy-gin-od-genever-i-london-dry/"</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Gin – historia powstania, burzliwe dzieje, renesans i powrót na salony oraz czym różni się kraftowy Gin od Genever i London Dry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/gin-z-tonikiem-historia-skladniki-przygotowanie/"</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Gin z tonikiem – historia powstania, jak poprawnie przygotować i jakie składniki najlepiej ze sobą połączyć?</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/grenadina-lub-grenadyna-co-to-jest-jak-zrobic-i-z-czym-pic/"</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Grenadina lub Grenadyna – co to jest, jak zrobić i z czym pić?</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/grillowana-margarita-drink-idealny/"</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Grillowana Margarita – drink idealny</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/historia-cocktailu/"</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Historia cocktailu</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/historia-pierwszego-koktajlu-w-polsce/"</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Historia pierwszego koktajlu podawanego w Polsce</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/jagermeister-trunek-ktory-pokochaly-masy-jego-historia-czym-jest-sklad-i-sposob-produkcji/"</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Jägermeister – „trunek, który pokochały masy” – jego historia, czym jest, skład i sposób produkcji</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/jak-stany-zjednoczone-na-rumie-zbudowano/"</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Jak Stany Zjednoczone na rumie zbudowano</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/jak-zrobic-11-najsmaczniejszych-drinkow-bezalkoholowych/"</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Jak zrobić 11 najsmaczniejszych drinków bezalkoholowych?</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/jak-zrobic-domowy-grzaniec-z-piwa-wina-lub-miodu-oraz-wersje-bez-alkoholu/"</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Jak zrobić domowy grzaniec z piwa, wina lub miodu oraz wersję bez alkoholu?</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/jak-zrobic-drink-blue-lagoon-historia-powstania-i-odmiany/"</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Jak zrobić drink Blue Lagoon? Historia powstania i odmiany.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/japonskie-bary-niedoscigniony-wzor-czy-chwilowa-moda/"</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Japońskie bary – niedościgniony wzór, czy chwilowa moda?</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/kac-czyli-miedzy-kociokwikiem-a-glatwa-czym-jest-spowodowany-i-jak-go-uniknac/"</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Kac, czyli między kociokwikiem, a glątwą. Czym jest spowodowany i jak go uniknąć?</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/kahlua-czym-jest-z-czym-pic/"</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Kahlua – czym jest, z czym pić?</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/koktele-z-rodzimych-barow-koktajlowa-historia-polski/"</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Koktele z rodzimych barów – koktajlowa historia Polski</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/malibu-kokosowy-likier-czy-rum-jak-pic-nie-tylko-z-mlekiem-i-czym-zastapic/"</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Malibu – kokosowy likier czy rum? Jak pić, nie tylko z mlekiem i czym zastąpić?</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/margarita-przepisy/"</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Margarita – przepis na drink klasyczny, na złotej tequili, mezcalu i nie tylko.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/metaxa-grecka-brandy/"</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Metaxa – grecka „brandy” o bogatej historii. Jak pić i o co chodzi z tymi gwiazdkami?</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/morskie-koktele-slow-kilka-o-cocktail-barach-i-mixerach-plywajacych-na-polskich-transatlantykach/"</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Morskie koktele – słów kilka o cocktail barach i mixerach pływających na polskich transatlantykach</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/najlepsze-drinki-na-whisky-dymnej/"</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Najlepsze drinki na whisky dymnej</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/najlepsze-postanowienia-noworoczne/"</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Najlepsze postanowienia noworoczne</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/negroni-7-najlepszych-przepisow/"</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Negroni – 7 najlepszych przepisów</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/old-fashioned/"</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Old Fashioned – powrót klasyka. Jak zrobić, jak serwować, jakie podawać wariacje?</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/ouzo-czym-jest-oraz-przepisy-jak-pic-i-podawac-nie-tylko-z-tonikiem/"</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Ouzo – czym jest oraz przepisy –  jak pić i podawać nie tylko z tonikiem?</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/pimento-czyli-czym-jest-allspice-likier-jak-zrobic-samemu-i-jak-wykorzystac-w-drinkach/"</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Pimento – czyli czym jest allspice likier, jak zrobić samemu i jak wykorzystać w drinkach?</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/pisco-czyli-alkohol-uniwersalny/"</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Pisco, czyli alkohol uniwersalny</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/pisco-i-potrawy-jakich-zasad-sie-trzymac-i-jaka-odmiane-pisco-wybrac/"</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Pisco i potrawy. Jakich zasad się trzymać i jaką odmianę Pisco wybrać?</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/pisco-z-chile-historia-i-rozwoj/"</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Pisco z Chile – historia i rozwój</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/piwa-barrel-aged-czyli-przenikanie-sie-swiatow-nie-tylko-producenci-whisky-korzystaja-z-uzywanych-beczek/"</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Piwa Barrel Aged, czyli przenikanie się światów – nie tylko producenci whisky korzystają z używanych beczek.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/piwne-koktajle-zimowe/"</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Piwne koktajle zimowe</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/piwowarstwo-domowe-czyli-jak-zrobic-piwo-samemu-w-domu-krok-po-kroku-a-przede-wszystkim-dlaczego/"</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Piwowarstwo domowe, czyli jak zrobić piwo samemu w domu krok po kroku, a przede wszystkim – dlaczego?</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/po-co-rozcienczac-drinki-czyli-co-woda-robi-z-alkoholem/"</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Po co rozcieńczać drinki, czyli co woda robi z alkoholem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/polityka-prywatnosci/"</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Polityka Prywatności</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/polska-wodka-wodka-z-polski-czy-tez-wodka-udajaca-polska/"</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Polska wódka, wódka z polski czy też wódka udająca Polską. O co w tym chodzi i jaką wódkę wybrać?</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/poradnik/"</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Poradniki</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/proporcje-i-miary-barowe-w-drinkach-co-to-jest-dash-uncja-pinta-kwarta-i-galon/"</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Czym są złote proporcje i miary barowe w drinkach? Dlaczego warto się ich trzymać? Co to jest dash, uncja, pinta, kwarta i galon?</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/przeglad-sklepowych-polek-wina-musujace-prosecco-cava/"</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Przegląd sklepowych półek. Wina musujące: Prosecco, Cava i inne. Które kupić?</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/przepisy-na-drinki/"</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Drinki</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/przepisy-na-shoty/"</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Przepisy na Shoty</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/recenzje-barow-2018-podsumowanie/"</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Recenzje barów 2018 – podsumowanie</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/recenzje/"</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Recenzje</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/rozpici-celebryci-czyli-jak-zaopatrzyc-sie-na-lata/"</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Rozpici celebryci, czyli jak zaopatrzyć się na lata</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/sambuca-czym-jest-jak-ja-pic/"</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Sambuca – czym jest, jak ją pić?</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/shoty-imprezowe-kolorowe-i-warstwowe-latwe-w-zrobieniu-i-nie-zawsze-mocne/"</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Shoty imprezowe – kolorowe i warstwowe, łatwe w zrobieniu i nie zawsze mocne</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/sol-w-drinkach/"</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Sól w drinkach</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/sztuka-tworzenia-drinkow-jak-zaczac/"</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Sztuka tworzenia drinków – jak zacząć?</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/trendy-2019-czyli-co-bedzie-modne-w-barach-w-tym-roku/"</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Trendy 2019, czyli co będzie modne w barach w tym roku?</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/vermouth-poradnik/"</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Wermut – co to jest bianco, rosso, extra dry i z czym pić?</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/vermouth-w-dwudziestoleciu-miedzywojennym-aperitivo-w-ii-rp/"</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Vermouth w dwudziestoleciu międzywojennym. Aperitivo w II RP?</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/whiskey-sour-7-najlepszych-przepisow/"</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Whiskey Sour – 7 najlepszych przepisów</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/whisky-soda-please/"</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Whisky Soda please</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/wina-musujace-typy-i-drinki/"</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Jakie wino musujące wybrać – Prosecco, Cava, Champagne? Jakie drinki przygotować?</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/wsciekly-pies-wszystko-co-musisz-wiedziec/"</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Wściekły pies – wszystko, co musisz wiedzieć!</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/wszystko-o-avernie/"</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Amaro Averna. Czym w ogóle jest Amaro? Jaka jest historia Averny? Jak się produkuję Avernę i jak ją pić?</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/wszystko-o-cachaca/"</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Cachaca – czym jest brazylijski “rum”? Jakie są rodzaje Cachacy? Jak poprawnie przygotować Caipirinha? Czym różni się od Caipiroska? Jak jeszcze inaczej pić Cachaca?</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/wszystko-o-cynar/"</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Cynar. Co wyróżnia go spośród Amaro? Jaka jest historia Cynar? Kto stworzył Cynar? Czym się charakteryzuje Cynar i jak go pić?</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/wszystko-o-czarnej-wodce/"</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Czarna wódka – skąd pochodzi jej kolor? Z czym ją pić?</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/wszystko-o-genever/"</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Genever, Jenever, Genièvre – czym jest, jakie są rodzaje, produkcja I jak pić?</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/wszystko-o-jamajskim-rumie/"</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Jamajski rum. Co czyni go tak specyficznym? Jaka jest jego historia? Ile pozostało obecnie czynnych destylarni? Jak pić jamajski rum?</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/wszystko-o-piwach-smakowych/"</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Wszystko o piwach smakowych!</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/wszystko-o-sake/"</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Sake – historia, jak powstaje, jakie są odmiany i jak pić?</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/wyszukiwarka-drinkow/"</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Wyszukaj Drinka</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/z-cyklu-cudze-chwalicie-swego-nie-znacie-czyli-historia-polskich-shakerow/"</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Z cyklu „cudze chwalicie, swego nie znacie”, czyli historia polskich shakerów</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/za-co-kochamy-campari-jagermeister-i-amaro-czyli-przyjemnosc-zapisana-w-genach/"</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Za co kochamy Campari, Jagermeister i Amaro czyli przyjemność zapisana w genach</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.mojbar.pl/za-zwyciestwo/"</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Za zwycięstwo!</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/href="https://www.youtube.com/channel/UCUXKg84aq3m2DxSe1k8Ff2g"</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpswwwmojbarplartykuly.xlsx
+++ b/database/httpswwwmojbarplartykuly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3489,6 +3489,18 @@
         </is>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://www.mojbar.pl/jaroslaw-buss-o-inwestowaniu-w-whisky/</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Jarosław Buss – o inwestowaniu w whisky</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
